--- a/nml_fresco.xlsx
+++ b/nml_fresco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jinukim\fresco_wrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF43DA1-D60F-484E-8B4D-3508C560F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BA132-69C3-489D-BA3B-8EFE64D990FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7ED0C14F-F61C-4EE4-85C6-911BFB1198FC}"/>
   </bookViews>
@@ -2240,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E74B7B-715B-4691-9B3D-D1F670A64B66}">
-  <dimension ref="A1:BT472"/>
+  <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2254,11 +2254,9 @@
     <col min="4" max="4" width="5.25" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="62.125" customWidth="1"/>
-    <col min="39" max="39" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>235</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2314,15 +2312,8 @@
       <c r="F3" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BT3" s="1"/>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2339,7 +2330,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2364,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2381,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2424,7 +2415,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2432,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2449,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -2474,10 +2465,8 @@
       <c r="F12" t="s">
         <v>229</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>99</v>
       </c>
@@ -2494,7 +2483,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2500,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -2528,7 +2517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -4112,15 +4101,6 @@
       <c r="F107" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="113" spans="10:72" x14ac:dyDescent="0.3">
-      <c r="J113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="AD113" s="1"/>
-      <c r="AO113" s="1"/>
-      <c r="BA113" s="1"/>
-      <c r="BK113" s="1"/>
-      <c r="BT113" s="1"/>
     </row>
     <row r="307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
